--- a/Output/Classifier Inference/XGBoost/Individual_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/XGBoost/Individual_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0003181219100952148</v>
+        <v>0.0004105885823567709</v>
       </c>
       <c r="B2" t="n">
-        <v>2.13648025584429e-07</v>
+        <v>2.757478726371866e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/XGBoost/Individual_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/XGBoost/Individual_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0004105885823567709</v>
+        <v>0.0006240606307983398</v>
       </c>
       <c r="B2" t="n">
-        <v>2.757478726371866e-07</v>
+        <v>4.191139226315244e-07</v>
       </c>
     </row>
   </sheetData>
